--- a/mmo_excel/xlsx/mapDoor.xlsx
+++ b/mmo_excel/xlsx/mapDoor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\mmo_demo\mmo_excel\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2848FB30-6332-4053-A564-7F81A98865EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9115BF-DB2D-44BA-ACE2-94967682CEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13425" yWindow="4320" windowWidth="21600" windowHeight="13125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12360" yWindow="2580" windowWidth="21600" windowHeight="13125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -413,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -530,7 +530,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="F5">
         <v>46</v>
@@ -550,16 +550,16 @@
         <v>3</v>
       </c>
       <c r="D6">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="E6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -579,14 +579,38 @@
         <v>42</v>
       </c>
       <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
         <v>3</v>
       </c>
-      <c r="G7">
-        <v>68</v>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>17</v>
+      </c>
+      <c r="F8">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>